--- a/examples/output/output.xlsx
+++ b/examples/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,10 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>interfaces</t>
+          <t>version</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>version</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>vrf</t>
         </is>
@@ -463,125 +458,66 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>rtr003</t>
+          <t>rtr001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10.1.3.0/24</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
+          <t>10.1.1.0/24</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>12.1</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>default</t>
+          <t>mgmt</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>rtr004</t>
+          <t>rtr002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10.1.4.0/24</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
+          <t>10.1.2.0/24</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>12.2</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.2</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>default</t>
+          <t>mgmt</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>rtr001</t>
+          <t>rtr003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10.1.1.0/24</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
+          <t>10.1.3.0/24</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>12.3</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12.3</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
           <t>default</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>rtr002</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>10.1.2.0/24</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>200</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>12.1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>default</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>rtr005</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>10.1.5.0/24</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>300</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12.1</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>mgmt</t>
         </is>
       </c>
     </row>
